--- a/Sol/Chap2.xlsx
+++ b/Sol/Chap2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox\共有用（岩城先生-共立）\220722_TeX\19560341_UTF-8\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OneDrive\GitSandbox\IntroductiontoDataAnalysis\Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0F9F7-B773-4C03-8095-14C6DFA7E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C66FDA-B2EA-4C8B-9C11-68E0070D7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="9368" tabRatio="500" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="例2.1-例2.2" sheetId="12" r:id="rId1"/>
@@ -28,15 +28,9 @@
     <sheet name="例2.8" sheetId="10" r:id="rId13"/>
     <sheet name="問2.8" sheetId="18" r:id="rId14"/>
     <sheet name="問2.9" sheetId="11" r:id="rId15"/>
-    <sheet name="問2.11" sheetId="13" r:id="rId16"/>
+    <sheet name="例2.9" sheetId="19" r:id="rId16"/>
+    <sheet name="問2.11" sheetId="13" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'問2.1（階級数20）'!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'問2.1（階級数20）'!$B$2:$B$20</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
   <si>
     <t>事業所数
 （件）</t>
@@ -618,7 +612,7 @@
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>従業員数
@@ -630,7 +624,7 @@
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>従業員数
@@ -638,14 +632,14 @@
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>所得金額</t>
     <rPh sb="0" eb="4">
       <t>ショトクキンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -669,7 +663,7 @@
     <rPh sb="0" eb="4">
       <t>ソウタイドスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -696,7 +690,7 @@
     <rPh sb="2" eb="6">
       <t>ソウタイドスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -773,11 +767,11 @@
   </si>
   <si>
     <t>データ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>階級上限値</t>
@@ -790,7 +784,7 @@
     <rPh sb="4" eb="5">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>データ区間</t>
@@ -803,7 +797,7 @@
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>次の級</t>
@@ -813,11 +807,11 @@
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>メディアン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>第3四分位点</t>
@@ -830,51 +824,51 @@
     <rPh sb="5" eb="6">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>最大値</t>
     <rPh sb="0" eb="3">
       <t>サイダイチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>最小値</t>
     <rPh sb="0" eb="3">
       <t>サイショウチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>問2.4</t>
     <rPh sb="0" eb="1">
       <t>トイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>例2.7</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>データC</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>データB</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>データA</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>データA度数分布</t>
@@ -884,14 +878,14 @@
     <rPh sb="4" eb="8">
       <t>ドスウブンプ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データC度数分布</t>
     <rPh sb="4" eb="8">
       <t>ドスウブンプ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -928,7 +922,7 @@
     <rPh sb="0" eb="2">
       <t>ブンサン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>標準偏差</t>
@@ -938,18 +932,18 @@
     <rPh sb="2" eb="4">
       <t>ヘンサ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>レンジ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>√(分散)</t>
     <rPh sb="2" eb="4">
       <t>ブンサン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -970,7 +964,7 @@
     <rPh sb="7" eb="8">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1008,7 +1002,7 @@
     <rPh sb="8" eb="9">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1043,7 +1037,7 @@
   <si>
     <t>累積
 相対度数</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>23500～24000</t>
@@ -1140,14 +1134,14 @@
     <rPh sb="7" eb="9">
       <t>ドスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>平均=</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1171,14 +1165,14 @@
     <rPh sb="0" eb="2">
       <t>ブンサン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>標準偏差=</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジュンヘンサ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1273,7 +1267,7 @@
     <rPh sb="11" eb="13">
       <t>ドスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1303,7 +1297,7 @@
     <rPh sb="6" eb="7">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>階級値
@@ -1314,14 +1308,14 @@
     <rPh sb="5" eb="9">
       <t>ソウタイドスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>平均＝</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>万円</t>
@@ -1331,7 +1325,7 @@
     <rPh sb="1" eb="2">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>標準得点</t>
@@ -1341,14 +1335,14 @@
     <rPh sb="2" eb="4">
       <t>トクテン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>偏差値</t>
     <rPh sb="0" eb="3">
       <t>ヘンサチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>平均年齢＝</t>
@@ -1358,7 +1352,7 @@
     <rPh sb="2" eb="4">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">60歳以上65歳未満 </t>
@@ -1401,7 +1395,7 @@
     <rPh sb="4" eb="8">
       <t>ソウタイドスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>合格者数
@@ -1412,7 +1406,7 @@
     <rPh sb="6" eb="10">
       <t>ソウタイドスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>階級値
@@ -1426,35 +1420,80 @@
     <rPh sb="5" eb="7">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>終値</t>
     <rPh sb="0" eb="2">
       <t>オワリネ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分散＝</t>
     <rPh sb="0" eb="2">
       <t>ブンサン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>標準偏差＝</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジュンヘンサ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>第1四分位点</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シブンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>A標準化</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>A偏差値</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンサチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1466,11 +1505,27 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1815,196 +1870,202 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7116,120 +7177,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="問1.1（階級数5）"/>
-      <sheetName val="問1.1（階級数20）"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="^N225"/>
-      <sheetName val="^N225 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>24000</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>24500</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>25000</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>25500</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>26000</v>
-          </cell>
-          <cell r="B6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>26500</v>
-          </cell>
-          <cell r="B7">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>27000</v>
-          </cell>
-          <cell r="B8">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>27500</v>
-          </cell>
-          <cell r="B9">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>28000</v>
-          </cell>
-          <cell r="B10">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>28500</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>次の級</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7533,17 +7480,17 @@
       <selection activeCell="I2" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.06640625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="21" customWidth="1"/>
-    <col min="2" max="8" width="8.06640625" style="21"/>
-    <col min="9" max="9" width="10.3984375" style="21" customWidth="1"/>
-    <col min="10" max="1023" width="8.06640625" style="21"/>
-    <col min="1024" max="1024" width="9.86328125" style="21" customWidth="1"/>
-    <col min="1025" max="16384" width="8.06640625" style="21"/>
+    <col min="2" max="8" width="8.109375" style="21"/>
+    <col min="9" max="9" width="10.44140625" style="21" customWidth="1"/>
+    <col min="10" max="1023" width="8.109375" style="21"/>
+    <col min="1024" max="1024" width="9.88671875" style="21" customWidth="1"/>
+    <col min="1025" max="16384" width="8.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="33" t="s">
         <v>89</v>
       </c>
@@ -7566,7 +7513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.649999999999999">
+    <row r="2" spans="1:15" ht="18">
       <c r="A2" s="34">
         <v>44592</v>
       </c>
@@ -7598,7 +7545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.649999999999999">
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="34">
         <v>44593</v>
       </c>
@@ -7631,7 +7578,7 @@
         <v>24250</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.649999999999999">
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="34">
         <v>44594</v>
       </c>
@@ -7668,7 +7615,7 @@
       <c r="M4" s="35"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="17.649999999999999">
+    <row r="5" spans="1:15" ht="18">
       <c r="A5" s="34">
         <v>44595</v>
       </c>
@@ -7705,7 +7652,7 @@
       <c r="M5" s="35"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="17.649999999999999">
+    <row r="6" spans="1:15" ht="18">
       <c r="A6" s="34">
         <v>44596</v>
       </c>
@@ -7742,7 +7689,7 @@
       <c r="M6" s="35"/>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="17.649999999999999">
+    <row r="7" spans="1:15" ht="18">
       <c r="A7" s="34">
         <v>44599</v>
       </c>
@@ -7779,7 +7726,7 @@
       <c r="M7" s="35"/>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="17.649999999999999">
+    <row r="8" spans="1:15" ht="18">
       <c r="A8" s="34">
         <v>44600</v>
       </c>
@@ -7812,7 +7759,7 @@
       <c r="M8" s="35"/>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="17.649999999999999">
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="34">
         <v>44601</v>
       </c>
@@ -7845,7 +7792,7 @@
       <c r="M9" s="35"/>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="17.649999999999999">
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="34">
         <v>44602</v>
       </c>
@@ -7878,7 +7825,7 @@
       <c r="M10" s="35"/>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999">
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="34">
         <v>44606</v>
       </c>
@@ -7911,7 +7858,7 @@
       <c r="M11" s="35"/>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="17.649999999999999">
+    <row r="12" spans="1:15" ht="18">
       <c r="A12" s="34">
         <v>44607</v>
       </c>
@@ -7944,7 +7891,7 @@
       <c r="M12" s="35"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="17.649999999999999">
+    <row r="13" spans="1:15" ht="18">
       <c r="A13" s="34">
         <v>44608</v>
       </c>
@@ -7971,7 +7918,7 @@
         <v>26750</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.649999999999999">
+    <row r="14" spans="1:15" ht="18">
       <c r="A14" s="34">
         <v>44609</v>
       </c>
@@ -7998,7 +7945,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.649999999999999">
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="34">
         <v>44610</v>
       </c>
@@ -8025,7 +7972,7 @@
         <v>27250</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.649999999999999">
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="34">
         <v>44613</v>
       </c>
@@ -8052,7 +7999,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.649999999999999">
+    <row r="17" spans="1:11" ht="18">
       <c r="A17" s="34">
         <v>44614</v>
       </c>
@@ -8079,7 +8026,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.649999999999999">
+    <row r="18" spans="1:11" ht="18">
       <c r="A18" s="34">
         <v>44616</v>
       </c>
@@ -8106,7 +8053,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.649999999999999">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="34">
         <v>44617</v>
       </c>
@@ -8133,7 +8080,7 @@
         <v>28250</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.649999999999999">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="34">
         <v>44620</v>
       </c>
@@ -8160,7 +8107,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.649999999999999">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="34">
         <v>44621</v>
       </c>
@@ -8183,7 +8130,7 @@
         <v>74000000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.649999999999999">
+    <row r="22" spans="1:11" ht="18">
       <c r="A22" s="34">
         <v>44622</v>
       </c>
@@ -8206,7 +8153,7 @@
         <v>87700000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.649999999999999">
+    <row r="23" spans="1:11" ht="18">
       <c r="A23" s="34">
         <v>44623</v>
       </c>
@@ -8229,7 +8176,7 @@
         <v>74800000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.649999999999999">
+    <row r="24" spans="1:11" ht="18">
       <c r="A24" s="34">
         <v>44624</v>
       </c>
@@ -8252,7 +8199,7 @@
         <v>93500000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.649999999999999">
+    <row r="25" spans="1:11" ht="18">
       <c r="A25" s="34">
         <v>44627</v>
       </c>
@@ -8275,7 +8222,7 @@
         <v>105400000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17.649999999999999">
+    <row r="26" spans="1:11" ht="18">
       <c r="A26" s="34">
         <v>44628</v>
       </c>
@@ -8298,7 +8245,7 @@
         <v>114700000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.649999999999999">
+    <row r="27" spans="1:11" ht="18">
       <c r="A27" s="34">
         <v>44629</v>
       </c>
@@ -8321,7 +8268,7 @@
         <v>91500000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.649999999999999">
+    <row r="28" spans="1:11" ht="18">
       <c r="A28" s="34">
         <v>44630</v>
       </c>
@@ -8344,7 +8291,7 @@
         <v>95200000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17.649999999999999">
+    <row r="29" spans="1:11" ht="18">
       <c r="A29" s="34">
         <v>44631</v>
       </c>
@@ -8367,7 +8314,7 @@
         <v>89600000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.649999999999999">
+    <row r="30" spans="1:11" ht="18">
       <c r="A30" s="34">
         <v>44634</v>
       </c>
@@ -8390,7 +8337,7 @@
         <v>72600000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17.649999999999999">
+    <row r="31" spans="1:11" ht="18">
       <c r="A31" s="34">
         <v>44635</v>
       </c>
@@ -8413,7 +8360,7 @@
         <v>73200000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17.649999999999999">
+    <row r="32" spans="1:11" ht="18">
       <c r="A32" s="34">
         <v>44636</v>
       </c>
@@ -8436,7 +8383,7 @@
         <v>82300000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.649999999999999">
+    <row r="33" spans="1:7" ht="18">
       <c r="A33" s="34">
         <v>44637</v>
       </c>
@@ -8459,7 +8406,7 @@
         <v>89600000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.649999999999999">
+    <row r="34" spans="1:7" ht="18">
       <c r="A34" s="34">
         <v>44638</v>
       </c>
@@ -8482,7 +8429,7 @@
         <v>108200000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.649999999999999">
+    <row r="35" spans="1:7" ht="18">
       <c r="A35" s="34">
         <v>44642</v>
       </c>
@@ -8505,7 +8452,7 @@
         <v>98000000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.649999999999999">
+    <row r="36" spans="1:7" ht="18">
       <c r="A36" s="34">
         <v>44643</v>
       </c>
@@ -8528,7 +8475,7 @@
         <v>88200000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.649999999999999">
+    <row r="37" spans="1:7" ht="18">
       <c r="A37" s="34">
         <v>44644</v>
       </c>
@@ -8551,7 +8498,7 @@
         <v>71600000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.649999999999999">
+    <row r="38" spans="1:7" ht="18">
       <c r="A38" s="34">
         <v>44645</v>
       </c>
@@ -8574,7 +8521,7 @@
         <v>67400000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.649999999999999">
+    <row r="39" spans="1:7" ht="18">
       <c r="A39" s="34">
         <v>44648</v>
       </c>
@@ -8597,7 +8544,7 @@
         <v>65300000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.649999999999999">
+    <row r="40" spans="1:7" ht="18">
       <c r="A40" s="34">
         <v>44649</v>
       </c>
@@ -8620,7 +8567,7 @@
         <v>77700000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.649999999999999">
+    <row r="41" spans="1:7" ht="18">
       <c r="A41" s="34">
         <v>44650</v>
       </c>
@@ -8643,7 +8590,7 @@
         <v>83400000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.649999999999999">
+    <row r="42" spans="1:7" ht="18">
       <c r="A42" s="34">
         <v>44651</v>
       </c>
@@ -8666,7 +8613,7 @@
         <v>78600000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.649999999999999">
+    <row r="43" spans="1:7" ht="18">
       <c r="A43" s="34">
         <v>44652</v>
       </c>
@@ -8689,7 +8636,7 @@
         <v>66800000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.649999999999999">
+    <row r="44" spans="1:7" ht="18">
       <c r="A44" s="34">
         <v>44655</v>
       </c>
@@ -8712,7 +8659,7 @@
         <v>50300000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.649999999999999">
+    <row r="45" spans="1:7" ht="18">
       <c r="A45" s="34">
         <v>44656</v>
       </c>
@@ -8735,7 +8682,7 @@
         <v>64300000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.649999999999999">
+    <row r="46" spans="1:7" ht="18">
       <c r="A46" s="34">
         <v>44657</v>
       </c>
@@ -8758,7 +8705,7 @@
         <v>68700000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.649999999999999">
+    <row r="47" spans="1:7" ht="18">
       <c r="A47" s="34">
         <v>44658</v>
       </c>
@@ -8781,7 +8728,7 @@
         <v>71100000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.649999999999999">
+    <row r="48" spans="1:7" ht="18">
       <c r="A48" s="34">
         <v>44659</v>
       </c>
@@ -8804,7 +8751,7 @@
         <v>78100000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.649999999999999">
+    <row r="49" spans="1:7" ht="18">
       <c r="A49" s="34">
         <v>44662</v>
       </c>
@@ -8827,7 +8774,7 @@
         <v>73500000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.649999999999999">
+    <row r="50" spans="1:7" ht="18">
       <c r="A50" s="34">
         <v>44663</v>
       </c>
@@ -8850,7 +8797,7 @@
         <v>75300000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.649999999999999">
+    <row r="51" spans="1:7" ht="18">
       <c r="A51" s="34">
         <v>44664</v>
       </c>
@@ -8873,7 +8820,7 @@
         <v>71600000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.649999999999999">
+    <row r="52" spans="1:7" ht="18">
       <c r="A52" s="34">
         <v>44665</v>
       </c>
@@ -8896,7 +8843,7 @@
         <v>61800000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.649999999999999">
+    <row r="53" spans="1:7" ht="18">
       <c r="A53" s="34">
         <v>44666</v>
       </c>
@@ -8919,7 +8866,7 @@
         <v>51500000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.649999999999999">
+    <row r="54" spans="1:7" ht="18">
       <c r="A54" s="34">
         <v>44669</v>
       </c>
@@ -8942,7 +8889,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.649999999999999">
+    <row r="55" spans="1:7" ht="18">
       <c r="A55" s="34">
         <v>44670</v>
       </c>
@@ -8965,7 +8912,7 @@
         <v>60500000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.649999999999999">
+    <row r="56" spans="1:7" ht="18">
       <c r="A56" s="34">
         <v>44671</v>
       </c>
@@ -8988,7 +8935,7 @@
         <v>72300000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.649999999999999">
+    <row r="57" spans="1:7" ht="18">
       <c r="A57" s="34">
         <v>44672</v>
       </c>
@@ -9011,7 +8958,7 @@
         <v>62300000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.649999999999999">
+    <row r="58" spans="1:7" ht="18">
       <c r="A58" s="34">
         <v>44673</v>
       </c>
@@ -9034,7 +8981,7 @@
         <v>58500000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.649999999999999">
+    <row r="59" spans="1:7" ht="18">
       <c r="A59" s="34">
         <v>44676</v>
       </c>
@@ -9057,7 +9004,7 @@
         <v>62700000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.649999999999999">
+    <row r="60" spans="1:7" ht="18">
       <c r="A60" s="34">
         <v>44677</v>
       </c>
@@ -9080,7 +9027,7 @@
         <v>64300000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.649999999999999">
+    <row r="61" spans="1:7" ht="18">
       <c r="A61" s="34">
         <v>44678</v>
       </c>
@@ -9103,7 +9050,7 @@
         <v>97300000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.649999999999999">
+    <row r="62" spans="1:7" ht="18">
       <c r="A62" s="34">
         <v>44679</v>
       </c>
@@ -9126,7 +9073,7 @@
         <v>86700000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.649999999999999">
+    <row r="63" spans="1:7" ht="18">
       <c r="A63" s="34">
         <v>44683</v>
       </c>
@@ -9149,7 +9096,7 @@
         <v>74500000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.649999999999999">
+    <row r="64" spans="1:7" ht="18">
       <c r="A64" s="34">
         <v>44687</v>
       </c>
@@ -9172,7 +9119,7 @@
         <v>98500000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.649999999999999">
+    <row r="65" spans="1:7" ht="18">
       <c r="A65" s="34">
         <v>44690</v>
       </c>
@@ -9195,7 +9142,7 @@
         <v>79500000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.649999999999999">
+    <row r="66" spans="1:7" ht="18">
       <c r="A66" s="34">
         <v>44691</v>
       </c>
@@ -9218,7 +9165,7 @@
         <v>80800000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.649999999999999">
+    <row r="67" spans="1:7" ht="18">
       <c r="A67" s="34">
         <v>44692</v>
       </c>
@@ -9241,7 +9188,7 @@
         <v>85900000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.649999999999999">
+    <row r="68" spans="1:7" ht="18">
       <c r="A68" s="34">
         <v>44693</v>
       </c>
@@ -9264,7 +9211,7 @@
         <v>91200000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.649999999999999">
+    <row r="69" spans="1:7" ht="18">
       <c r="A69" s="34">
         <v>44694</v>
       </c>
@@ -9287,7 +9234,7 @@
         <v>103800000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.649999999999999">
+    <row r="70" spans="1:7" ht="18">
       <c r="A70" s="34">
         <v>44697</v>
       </c>
@@ -9310,7 +9257,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.649999999999999">
+    <row r="71" spans="1:7" ht="18">
       <c r="A71" s="34">
         <v>44698</v>
       </c>
@@ -9333,7 +9280,7 @@
         <v>78900000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.649999999999999">
+    <row r="72" spans="1:7" ht="18">
       <c r="A72" s="34">
         <v>44699</v>
       </c>
@@ -9356,7 +9303,7 @@
         <v>74700000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.649999999999999">
+    <row r="73" spans="1:7" ht="18">
       <c r="A73" s="34">
         <v>44700</v>
       </c>
@@ -9379,7 +9326,7 @@
         <v>74500000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.649999999999999">
+    <row r="74" spans="1:7" ht="18">
       <c r="A74" s="34">
         <v>44701</v>
       </c>
@@ -9402,7 +9349,7 @@
         <v>76300000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.649999999999999">
+    <row r="75" spans="1:7" ht="18">
       <c r="A75" s="34">
         <v>44704</v>
       </c>
@@ -9425,7 +9372,7 @@
         <v>65000000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.649999999999999">
+    <row r="76" spans="1:7" ht="18">
       <c r="A76" s="34">
         <v>44705</v>
       </c>
@@ -9448,7 +9395,7 @@
         <v>67400000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.649999999999999">
+    <row r="77" spans="1:7" ht="18">
       <c r="A77" s="34">
         <v>44706</v>
       </c>
@@ -9471,7 +9418,7 @@
         <v>72300000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.649999999999999">
+    <row r="78" spans="1:7" ht="18">
       <c r="A78" s="34">
         <v>44707</v>
       </c>
@@ -9494,7 +9441,7 @@
         <v>64500000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.649999999999999">
+    <row r="79" spans="1:7" ht="18">
       <c r="A79" s="34">
         <v>44708</v>
       </c>
@@ -9517,7 +9464,7 @@
         <v>69300000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.649999999999999">
+    <row r="80" spans="1:7" ht="18">
       <c r="A80" s="34">
         <v>44711</v>
       </c>
@@ -9540,7 +9487,7 @@
         <v>97000000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.649999999999999">
+    <row r="81" spans="1:7" ht="18">
       <c r="A81" s="34">
         <v>44712</v>
       </c>
@@ -9563,7 +9510,7 @@
         <v>141800000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.649999999999999">
+    <row r="82" spans="1:7" ht="18">
       <c r="A82" s="34">
         <v>44713</v>
       </c>
@@ -9586,7 +9533,7 @@
         <v>75800000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.649999999999999">
+    <row r="83" spans="1:7" ht="18">
       <c r="A83" s="34">
         <v>44714</v>
       </c>
@@ -9609,7 +9556,7 @@
         <v>63600000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.649999999999999">
+    <row r="84" spans="1:7" ht="18">
       <c r="A84" s="34">
         <v>44715</v>
       </c>
@@ -9632,7 +9579,7 @@
         <v>63700000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.649999999999999">
+    <row r="85" spans="1:7" ht="18">
       <c r="A85" s="34">
         <v>44718</v>
       </c>
@@ -9655,7 +9602,7 @@
         <v>56800000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.649999999999999">
+    <row r="86" spans="1:7" ht="18">
       <c r="A86" s="34">
         <v>44719</v>
       </c>
@@ -9678,7 +9625,7 @@
         <v>68300000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.649999999999999">
+    <row r="87" spans="1:7" ht="18">
       <c r="A87" s="34">
         <v>44720</v>
       </c>
@@ -9701,7 +9648,7 @@
         <v>78700000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.649999999999999">
+    <row r="88" spans="1:7" ht="18">
       <c r="A88" s="34">
         <v>44721</v>
       </c>
@@ -9724,7 +9671,7 @@
         <v>80300000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.649999999999999">
+    <row r="89" spans="1:7" ht="18">
       <c r="A89" s="34">
         <v>44722</v>
       </c>
@@ -9747,7 +9694,7 @@
         <v>79700000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.649999999999999">
+    <row r="90" spans="1:7" ht="18">
       <c r="A90" s="34">
         <v>44725</v>
       </c>
@@ -9770,7 +9717,7 @@
         <v>71400000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.649999999999999">
+    <row r="91" spans="1:7" ht="18">
       <c r="A91" s="34">
         <v>44726</v>
       </c>
@@ -9793,7 +9740,7 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.649999999999999">
+    <row r="92" spans="1:7" ht="18">
       <c r="A92" s="34">
         <v>44727</v>
       </c>
@@ -9816,7 +9763,7 @@
         <v>72700000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.649999999999999">
+    <row r="93" spans="1:7" ht="18">
       <c r="A93" s="34">
         <v>44728</v>
       </c>
@@ -9839,7 +9786,7 @@
         <v>67800000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.649999999999999">
+    <row r="94" spans="1:7" ht="18">
       <c r="A94" s="34">
         <v>44729</v>
       </c>
@@ -9862,7 +9809,7 @@
         <v>115200000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.649999999999999">
+    <row r="95" spans="1:7" ht="18">
       <c r="A95" s="34">
         <v>44732</v>
       </c>
@@ -9885,7 +9832,7 @@
         <v>72200000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.649999999999999">
+    <row r="96" spans="1:7" ht="18">
       <c r="A96" s="34">
         <v>44733</v>
       </c>
@@ -9908,7 +9855,7 @@
         <v>65400000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.649999999999999">
+    <row r="97" spans="1:7" ht="18">
       <c r="A97" s="34">
         <v>44734</v>
       </c>
@@ -9931,7 +9878,7 @@
         <v>66400000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.649999999999999">
+    <row r="98" spans="1:7" ht="18">
       <c r="A98" s="34">
         <v>44735</v>
       </c>
@@ -9954,7 +9901,7 @@
         <v>65700000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.649999999999999">
+    <row r="99" spans="1:7" ht="18">
       <c r="A99" s="34">
         <v>44736</v>
       </c>
@@ -9977,7 +9924,7 @@
         <v>72600000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.649999999999999">
+    <row r="100" spans="1:7" ht="18">
       <c r="A100" s="34">
         <v>44739</v>
       </c>
@@ -10000,7 +9947,7 @@
         <v>65800000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.649999999999999">
+    <row r="101" spans="1:7" ht="18">
       <c r="A101" s="34">
         <v>44740</v>
       </c>
@@ -10023,7 +9970,7 @@
         <v>73400000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.649999999999999">
+    <row r="102" spans="1:7" ht="18">
       <c r="A102" s="34">
         <v>44741</v>
       </c>
@@ -10046,7 +9993,7 @@
         <v>101100000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.649999999999999">
+    <row r="103" spans="1:7" ht="18">
       <c r="A103" s="34">
         <v>44742</v>
       </c>
@@ -10069,7 +10016,7 @@
         <v>86100000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.649999999999999">
+    <row r="104" spans="1:7" ht="18">
       <c r="A104" s="34">
         <v>44743</v>
       </c>
@@ -10092,7 +10039,7 @@
         <v>81700000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.649999999999999">
+    <row r="105" spans="1:7" ht="18">
       <c r="A105" s="34">
         <v>44746</v>
       </c>
@@ -10115,7 +10062,7 @@
         <v>68700000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.649999999999999">
+    <row r="106" spans="1:7" ht="18">
       <c r="A106" s="34">
         <v>44747</v>
       </c>
@@ -10138,7 +10085,7 @@
         <v>62800000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.649999999999999">
+    <row r="107" spans="1:7" ht="18">
       <c r="A107" s="34">
         <v>44748</v>
       </c>
@@ -10161,7 +10108,7 @@
         <v>89700000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.649999999999999">
+    <row r="108" spans="1:7" ht="18">
       <c r="A108" s="34">
         <v>44749</v>
       </c>
@@ -10184,7 +10131,7 @@
         <v>80700000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.649999999999999">
+    <row r="109" spans="1:7" ht="18">
       <c r="A109" s="34">
         <v>44750</v>
       </c>
@@ -10207,7 +10154,7 @@
         <v>89300000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.649999999999999">
+    <row r="110" spans="1:7" ht="18">
       <c r="A110" s="34">
         <v>44753</v>
       </c>
@@ -10230,7 +10177,7 @@
         <v>68500000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.649999999999999">
+    <row r="111" spans="1:7" ht="18">
       <c r="A111" s="34">
         <v>44754</v>
       </c>
@@ -10253,7 +10200,7 @@
         <v>64400000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.649999999999999">
+    <row r="112" spans="1:7" ht="18">
       <c r="A112" s="34">
         <v>44755</v>
       </c>
@@ -10276,7 +10223,7 @@
         <v>54100000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.649999999999999">
+    <row r="113" spans="1:7" ht="18">
       <c r="A113" s="34">
         <v>44756</v>
       </c>
@@ -10299,7 +10246,7 @@
         <v>60600000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.649999999999999">
+    <row r="114" spans="1:7" ht="18">
       <c r="A114" s="34">
         <v>44757</v>
       </c>
@@ -10322,7 +10269,7 @@
         <v>65500000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.649999999999999">
+    <row r="115" spans="1:7" ht="18">
       <c r="A115" s="34">
         <v>44761</v>
       </c>
@@ -10345,7 +10292,7 @@
         <v>59400000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.649999999999999">
+    <row r="116" spans="1:7" ht="18">
       <c r="A116" s="34">
         <v>44762</v>
       </c>
@@ -10368,7 +10315,7 @@
         <v>66700000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.649999999999999">
+    <row r="117" spans="1:7" ht="18">
       <c r="A117" s="34">
         <v>44763</v>
       </c>
@@ -10391,7 +10338,7 @@
         <v>56700000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.649999999999999">
+    <row r="118" spans="1:7" ht="18">
       <c r="A118" s="34">
         <v>44764</v>
       </c>
@@ -10414,7 +10361,7 @@
         <v>60100000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.649999999999999">
+    <row r="119" spans="1:7" ht="18">
       <c r="A119" s="34">
         <v>44767</v>
       </c>
@@ -10437,7 +10384,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.649999999999999">
+    <row r="120" spans="1:7" ht="18">
       <c r="A120" s="34">
         <v>44768</v>
       </c>
@@ -10460,7 +10407,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.649999999999999">
+    <row r="121" spans="1:7" ht="18">
       <c r="A121" s="34">
         <v>44769</v>
       </c>
@@ -10483,7 +10430,7 @@
         <v>51100000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.649999999999999">
+    <row r="122" spans="1:7" ht="18">
       <c r="A122" s="34">
         <v>44770</v>
       </c>
@@ -10506,7 +10453,7 @@
         <v>83500000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.649999999999999">
+    <row r="123" spans="1:7" ht="18">
       <c r="A123" s="34">
         <v>44771</v>
       </c>
@@ -10530,7 +10477,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -10540,13 +10487,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB102157-8C8C-4096-9A22-3F31B7775669}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="12"/>
+    <col min="1" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10589,7 +10536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1"/>
+    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>46</v>
@@ -10828,7 +10775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="C25" s="14" t="s">
         <v>50</v>
       </c>
@@ -10837,7 +10784,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10848,13 +10795,13 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="12"/>
+    <col min="1" max="1" width="11.88671875" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10916,8 +10863,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
+      <c r="A6" s="67" t="s">
+        <v>126</v>
       </c>
       <c r="B6" s="12">
         <f>_xlfn.PERCENTILE.INC(B2:K2,0.25)</f>
@@ -10969,7 +10916,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10982,15 +10929,15 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="12" customWidth="1"/>
     <col min="5" max="10" width="2.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="12"/>
+    <col min="11" max="11" width="3.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11165,7 +11112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" thickBot="1">
+    <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="C11" s="17" t="s">
         <v>62</v>
       </c>
@@ -11303,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="C24" s="14" t="s">
         <v>50</v>
       </c>
@@ -11311,15 +11258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
-      <c r="C26" s="56" t="s">
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="C26" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="70"/>
     </row>
     <row r="27" spans="1:4">
       <c r="C27" s="13" t="s">
@@ -11417,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="18" thickBot="1">
+    <row r="39" spans="3:4" ht="18.600000000000001" thickBot="1">
       <c r="C39" s="14" t="s">
         <v>50</v>
       </c>
@@ -11425,15 +11372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="18" thickBot="1">
+    <row r="40" spans="3:4" ht="18.600000000000001" thickBot="1">
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="3:4" ht="18" thickBot="1">
-      <c r="C41" s="56" t="s">
+    <row r="41" spans="3:4" ht="18.600000000000001" thickBot="1">
+      <c r="C41" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="70"/>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="13" t="s">
@@ -11531,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="18" thickBot="1">
+    <row r="54" spans="3:4" ht="18.600000000000001" thickBot="1">
       <c r="C54" s="14" t="s">
         <v>50</v>
       </c>
@@ -11544,7 +11491,7 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C41:D41"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11558,9 +11505,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="12"/>
+    <col min="1" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
@@ -11731,7 +11678,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11744,18 +11691,18 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.06640625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="21" customWidth="1"/>
-    <col min="2" max="8" width="8.06640625" style="21"/>
-    <col min="9" max="9" width="10.3984375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="1023" width="8.06640625" style="21"/>
-    <col min="1024" max="1024" width="9.86328125" style="21" customWidth="1"/>
-    <col min="1025" max="16384" width="8.06640625" style="21"/>
+    <col min="2" max="8" width="8.109375" style="21"/>
+    <col min="9" max="9" width="10.44140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="1023" width="8.109375" style="21"/>
+    <col min="1024" max="1024" width="9.88671875" style="21" customWidth="1"/>
+    <col min="1025" max="16384" width="8.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="33" t="s">
         <v>89</v>
       </c>
@@ -11781,7 +11728,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.649999999999999">
+    <row r="2" spans="1:15" ht="18">
       <c r="A2" s="34">
         <v>44592</v>
       </c>
@@ -11811,7 +11758,7 @@
         <v>26879.041656065576</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.649999999999999">
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="34">
         <v>44593</v>
       </c>
@@ -11841,7 +11788,7 @@
         <v>550865.80546665646</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.649999999999999">
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="34">
         <v>44594</v>
       </c>
@@ -11873,7 +11820,7 @@
       <c r="M4" s="35"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="17.649999999999999">
+    <row r="5" spans="1:15" ht="18">
       <c r="A5" s="34">
         <v>44595</v>
       </c>
@@ -11898,7 +11845,7 @@
       <c r="M5" s="35"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="17.649999999999999">
+    <row r="6" spans="1:15" ht="18">
       <c r="A6" s="34">
         <v>44596</v>
       </c>
@@ -11923,7 +11870,7 @@
       <c r="M6" s="35"/>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="17.649999999999999">
+    <row r="7" spans="1:15" ht="18">
       <c r="A7" s="34">
         <v>44599</v>
       </c>
@@ -11948,7 +11895,7 @@
       <c r="M7" s="35"/>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="17.649999999999999">
+    <row r="8" spans="1:15" ht="18">
       <c r="A8" s="34">
         <v>44600</v>
       </c>
@@ -11973,7 +11920,7 @@
       <c r="M8" s="35"/>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="17.649999999999999">
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="34">
         <v>44601</v>
       </c>
@@ -11998,7 +11945,7 @@
       <c r="M9" s="35"/>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="17.649999999999999">
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="34">
         <v>44602</v>
       </c>
@@ -12023,7 +11970,7 @@
       <c r="M10" s="35"/>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999">
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="34">
         <v>44606</v>
       </c>
@@ -12048,7 +11995,7 @@
       <c r="M11" s="35"/>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="17.649999999999999">
+    <row r="12" spans="1:15" ht="18">
       <c r="A12" s="34">
         <v>44607</v>
       </c>
@@ -12073,7 +12020,7 @@
       <c r="M12" s="35"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="17.649999999999999">
+    <row r="13" spans="1:15" ht="18">
       <c r="A13" s="34">
         <v>44608</v>
       </c>
@@ -12096,7 +12043,7 @@
         <v>64100000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.649999999999999">
+    <row r="14" spans="1:15" ht="18">
       <c r="A14" s="34">
         <v>44609</v>
       </c>
@@ -12119,7 +12066,7 @@
         <v>67800000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.649999999999999">
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="34">
         <v>44610</v>
       </c>
@@ -12142,7 +12089,7 @@
         <v>63500000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.649999999999999">
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="34">
         <v>44613</v>
       </c>
@@ -12165,7 +12112,7 @@
         <v>52900000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.649999999999999">
+    <row r="17" spans="1:7" ht="18">
       <c r="A17" s="34">
         <v>44614</v>
       </c>
@@ -12188,7 +12135,7 @@
         <v>67300000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.649999999999999">
+    <row r="18" spans="1:7" ht="18">
       <c r="A18" s="34">
         <v>44616</v>
       </c>
@@ -12211,7 +12158,7 @@
         <v>93500000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.649999999999999">
+    <row r="19" spans="1:7" ht="18">
       <c r="A19" s="34">
         <v>44617</v>
       </c>
@@ -12234,7 +12181,7 @@
         <v>77600000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.649999999999999">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="34">
         <v>44620</v>
       </c>
@@ -12257,7 +12204,7 @@
         <v>91100000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.649999999999999">
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="34">
         <v>44621</v>
       </c>
@@ -12280,7 +12227,7 @@
         <v>74000000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.649999999999999">
+    <row r="22" spans="1:7" ht="18">
       <c r="A22" s="34">
         <v>44622</v>
       </c>
@@ -12303,7 +12250,7 @@
         <v>87700000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.649999999999999">
+    <row r="23" spans="1:7" ht="18">
       <c r="A23" s="34">
         <v>44623</v>
       </c>
@@ -12326,7 +12273,7 @@
         <v>74800000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.649999999999999">
+    <row r="24" spans="1:7" ht="18">
       <c r="A24" s="34">
         <v>44624</v>
       </c>
@@ -12349,7 +12296,7 @@
         <v>93500000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.649999999999999">
+    <row r="25" spans="1:7" ht="18">
       <c r="A25" s="34">
         <v>44627</v>
       </c>
@@ -12372,7 +12319,7 @@
         <v>105400000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.649999999999999">
+    <row r="26" spans="1:7" ht="18">
       <c r="A26" s="34">
         <v>44628</v>
       </c>
@@ -12395,7 +12342,7 @@
         <v>114700000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.649999999999999">
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" s="34">
         <v>44629</v>
       </c>
@@ -12418,7 +12365,7 @@
         <v>91500000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.649999999999999">
+    <row r="28" spans="1:7" ht="18">
       <c r="A28" s="34">
         <v>44630</v>
       </c>
@@ -12441,7 +12388,7 @@
         <v>95200000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.649999999999999">
+    <row r="29" spans="1:7" ht="18">
       <c r="A29" s="34">
         <v>44631</v>
       </c>
@@ -12464,7 +12411,7 @@
         <v>89600000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.649999999999999">
+    <row r="30" spans="1:7" ht="18">
       <c r="A30" s="34">
         <v>44634</v>
       </c>
@@ -12487,7 +12434,7 @@
         <v>72600000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.649999999999999">
+    <row r="31" spans="1:7" ht="18">
       <c r="A31" s="34">
         <v>44635</v>
       </c>
@@ -12510,7 +12457,7 @@
         <v>73200000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.649999999999999">
+    <row r="32" spans="1:7" ht="18">
       <c r="A32" s="34">
         <v>44636</v>
       </c>
@@ -12533,7 +12480,7 @@
         <v>82300000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.649999999999999">
+    <row r="33" spans="1:7" ht="18">
       <c r="A33" s="34">
         <v>44637</v>
       </c>
@@ -12556,7 +12503,7 @@
         <v>89600000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.649999999999999">
+    <row r="34" spans="1:7" ht="18">
       <c r="A34" s="34">
         <v>44638</v>
       </c>
@@ -12579,7 +12526,7 @@
         <v>108200000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.649999999999999">
+    <row r="35" spans="1:7" ht="18">
       <c r="A35" s="34">
         <v>44642</v>
       </c>
@@ -12602,7 +12549,7 @@
         <v>98000000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.649999999999999">
+    <row r="36" spans="1:7" ht="18">
       <c r="A36" s="34">
         <v>44643</v>
       </c>
@@ -12625,7 +12572,7 @@
         <v>88200000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.649999999999999">
+    <row r="37" spans="1:7" ht="18">
       <c r="A37" s="34">
         <v>44644</v>
       </c>
@@ -12648,7 +12595,7 @@
         <v>71600000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.649999999999999">
+    <row r="38" spans="1:7" ht="18">
       <c r="A38" s="34">
         <v>44645</v>
       </c>
@@ -12671,7 +12618,7 @@
         <v>67400000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.649999999999999">
+    <row r="39" spans="1:7" ht="18">
       <c r="A39" s="34">
         <v>44648</v>
       </c>
@@ -12694,7 +12641,7 @@
         <v>65300000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.649999999999999">
+    <row r="40" spans="1:7" ht="18">
       <c r="A40" s="34">
         <v>44649</v>
       </c>
@@ -12717,7 +12664,7 @@
         <v>77700000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.649999999999999">
+    <row r="41" spans="1:7" ht="18">
       <c r="A41" s="34">
         <v>44650</v>
       </c>
@@ -12740,7 +12687,7 @@
         <v>83400000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.649999999999999">
+    <row r="42" spans="1:7" ht="18">
       <c r="A42" s="34">
         <v>44651</v>
       </c>
@@ -12763,7 +12710,7 @@
         <v>78600000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.649999999999999">
+    <row r="43" spans="1:7" ht="18">
       <c r="A43" s="34">
         <v>44652</v>
       </c>
@@ -12786,7 +12733,7 @@
         <v>66800000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.649999999999999">
+    <row r="44" spans="1:7" ht="18">
       <c r="A44" s="34">
         <v>44655</v>
       </c>
@@ -12809,7 +12756,7 @@
         <v>50300000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.649999999999999">
+    <row r="45" spans="1:7" ht="18">
       <c r="A45" s="34">
         <v>44656</v>
       </c>
@@ -12832,7 +12779,7 @@
         <v>64300000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.649999999999999">
+    <row r="46" spans="1:7" ht="18">
       <c r="A46" s="34">
         <v>44657</v>
       </c>
@@ -12855,7 +12802,7 @@
         <v>68700000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.649999999999999">
+    <row r="47" spans="1:7" ht="18">
       <c r="A47" s="34">
         <v>44658</v>
       </c>
@@ -12878,7 +12825,7 @@
         <v>71100000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.649999999999999">
+    <row r="48" spans="1:7" ht="18">
       <c r="A48" s="34">
         <v>44659</v>
       </c>
@@ -12901,7 +12848,7 @@
         <v>78100000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.649999999999999">
+    <row r="49" spans="1:7" ht="18">
       <c r="A49" s="34">
         <v>44662</v>
       </c>
@@ -12924,7 +12871,7 @@
         <v>73500000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.649999999999999">
+    <row r="50" spans="1:7" ht="18">
       <c r="A50" s="34">
         <v>44663</v>
       </c>
@@ -12947,7 +12894,7 @@
         <v>75300000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.649999999999999">
+    <row r="51" spans="1:7" ht="18">
       <c r="A51" s="34">
         <v>44664</v>
       </c>
@@ -12970,7 +12917,7 @@
         <v>71600000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.649999999999999">
+    <row r="52" spans="1:7" ht="18">
       <c r="A52" s="34">
         <v>44665</v>
       </c>
@@ -12993,7 +12940,7 @@
         <v>61800000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.649999999999999">
+    <row r="53" spans="1:7" ht="18">
       <c r="A53" s="34">
         <v>44666</v>
       </c>
@@ -13016,7 +12963,7 @@
         <v>51500000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.649999999999999">
+    <row r="54" spans="1:7" ht="18">
       <c r="A54" s="34">
         <v>44669</v>
       </c>
@@ -13039,7 +12986,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.649999999999999">
+    <row r="55" spans="1:7" ht="18">
       <c r="A55" s="34">
         <v>44670</v>
       </c>
@@ -13062,7 +13009,7 @@
         <v>60500000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.649999999999999">
+    <row r="56" spans="1:7" ht="18">
       <c r="A56" s="34">
         <v>44671</v>
       </c>
@@ -13085,7 +13032,7 @@
         <v>72300000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.649999999999999">
+    <row r="57" spans="1:7" ht="18">
       <c r="A57" s="34">
         <v>44672</v>
       </c>
@@ -13108,7 +13055,7 @@
         <v>62300000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.649999999999999">
+    <row r="58" spans="1:7" ht="18">
       <c r="A58" s="34">
         <v>44673</v>
       </c>
@@ -13131,7 +13078,7 @@
         <v>58500000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.649999999999999">
+    <row r="59" spans="1:7" ht="18">
       <c r="A59" s="34">
         <v>44676</v>
       </c>
@@ -13154,7 +13101,7 @@
         <v>62700000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.649999999999999">
+    <row r="60" spans="1:7" ht="18">
       <c r="A60" s="34">
         <v>44677</v>
       </c>
@@ -13177,7 +13124,7 @@
         <v>64300000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.649999999999999">
+    <row r="61" spans="1:7" ht="18">
       <c r="A61" s="34">
         <v>44678</v>
       </c>
@@ -13200,7 +13147,7 @@
         <v>97300000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.649999999999999">
+    <row r="62" spans="1:7" ht="18">
       <c r="A62" s="34">
         <v>44679</v>
       </c>
@@ -13223,7 +13170,7 @@
         <v>86700000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.649999999999999">
+    <row r="63" spans="1:7" ht="18">
       <c r="A63" s="34">
         <v>44683</v>
       </c>
@@ -13246,7 +13193,7 @@
         <v>74500000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.649999999999999">
+    <row r="64" spans="1:7" ht="18">
       <c r="A64" s="34">
         <v>44687</v>
       </c>
@@ -13269,7 +13216,7 @@
         <v>98500000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.649999999999999">
+    <row r="65" spans="1:7" ht="18">
       <c r="A65" s="34">
         <v>44690</v>
       </c>
@@ -13292,7 +13239,7 @@
         <v>79500000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.649999999999999">
+    <row r="66" spans="1:7" ht="18">
       <c r="A66" s="34">
         <v>44691</v>
       </c>
@@ -13315,7 +13262,7 @@
         <v>80800000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.649999999999999">
+    <row r="67" spans="1:7" ht="18">
       <c r="A67" s="34">
         <v>44692</v>
       </c>
@@ -13338,7 +13285,7 @@
         <v>85900000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.649999999999999">
+    <row r="68" spans="1:7" ht="18">
       <c r="A68" s="34">
         <v>44693</v>
       </c>
@@ -13361,7 +13308,7 @@
         <v>91200000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.649999999999999">
+    <row r="69" spans="1:7" ht="18">
       <c r="A69" s="34">
         <v>44694</v>
       </c>
@@ -13384,7 +13331,7 @@
         <v>103800000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.649999999999999">
+    <row r="70" spans="1:7" ht="18">
       <c r="A70" s="34">
         <v>44697</v>
       </c>
@@ -13407,7 +13354,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.649999999999999">
+    <row r="71" spans="1:7" ht="18">
       <c r="A71" s="34">
         <v>44698</v>
       </c>
@@ -13430,7 +13377,7 @@
         <v>78900000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.649999999999999">
+    <row r="72" spans="1:7" ht="18">
       <c r="A72" s="34">
         <v>44699</v>
       </c>
@@ -13453,7 +13400,7 @@
         <v>74700000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.649999999999999">
+    <row r="73" spans="1:7" ht="18">
       <c r="A73" s="34">
         <v>44700</v>
       </c>
@@ -13476,7 +13423,7 @@
         <v>74500000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.649999999999999">
+    <row r="74" spans="1:7" ht="18">
       <c r="A74" s="34">
         <v>44701</v>
       </c>
@@ -13499,7 +13446,7 @@
         <v>76300000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.649999999999999">
+    <row r="75" spans="1:7" ht="18">
       <c r="A75" s="34">
         <v>44704</v>
       </c>
@@ -13522,7 +13469,7 @@
         <v>65000000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.649999999999999">
+    <row r="76" spans="1:7" ht="18">
       <c r="A76" s="34">
         <v>44705</v>
       </c>
@@ -13545,7 +13492,7 @@
         <v>67400000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.649999999999999">
+    <row r="77" spans="1:7" ht="18">
       <c r="A77" s="34">
         <v>44706</v>
       </c>
@@ -13568,7 +13515,7 @@
         <v>72300000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.649999999999999">
+    <row r="78" spans="1:7" ht="18">
       <c r="A78" s="34">
         <v>44707</v>
       </c>
@@ -13591,7 +13538,7 @@
         <v>64500000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.649999999999999">
+    <row r="79" spans="1:7" ht="18">
       <c r="A79" s="34">
         <v>44708</v>
       </c>
@@ -13614,7 +13561,7 @@
         <v>69300000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.649999999999999">
+    <row r="80" spans="1:7" ht="18">
       <c r="A80" s="34">
         <v>44711</v>
       </c>
@@ -13637,7 +13584,7 @@
         <v>97000000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.649999999999999">
+    <row r="81" spans="1:7" ht="18">
       <c r="A81" s="34">
         <v>44712</v>
       </c>
@@ -13660,7 +13607,7 @@
         <v>141800000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.649999999999999">
+    <row r="82" spans="1:7" ht="18">
       <c r="A82" s="34">
         <v>44713</v>
       </c>
@@ -13683,7 +13630,7 @@
         <v>75800000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.649999999999999">
+    <row r="83" spans="1:7" ht="18">
       <c r="A83" s="34">
         <v>44714</v>
       </c>
@@ -13706,7 +13653,7 @@
         <v>63600000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.649999999999999">
+    <row r="84" spans="1:7" ht="18">
       <c r="A84" s="34">
         <v>44715</v>
       </c>
@@ -13729,7 +13676,7 @@
         <v>63700000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.649999999999999">
+    <row r="85" spans="1:7" ht="18">
       <c r="A85" s="34">
         <v>44718</v>
       </c>
@@ -13752,7 +13699,7 @@
         <v>56800000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.649999999999999">
+    <row r="86" spans="1:7" ht="18">
       <c r="A86" s="34">
         <v>44719</v>
       </c>
@@ -13775,7 +13722,7 @@
         <v>68300000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.649999999999999">
+    <row r="87" spans="1:7" ht="18">
       <c r="A87" s="34">
         <v>44720</v>
       </c>
@@ -13798,7 +13745,7 @@
         <v>78700000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.649999999999999">
+    <row r="88" spans="1:7" ht="18">
       <c r="A88" s="34">
         <v>44721</v>
       </c>
@@ -13821,7 +13768,7 @@
         <v>80300000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.649999999999999">
+    <row r="89" spans="1:7" ht="18">
       <c r="A89" s="34">
         <v>44722</v>
       </c>
@@ -13844,7 +13791,7 @@
         <v>79700000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.649999999999999">
+    <row r="90" spans="1:7" ht="18">
       <c r="A90" s="34">
         <v>44725</v>
       </c>
@@ -13867,7 +13814,7 @@
         <v>71400000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.649999999999999">
+    <row r="91" spans="1:7" ht="18">
       <c r="A91" s="34">
         <v>44726</v>
       </c>
@@ -13890,7 +13837,7 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.649999999999999">
+    <row r="92" spans="1:7" ht="18">
       <c r="A92" s="34">
         <v>44727</v>
       </c>
@@ -13913,7 +13860,7 @@
         <v>72700000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.649999999999999">
+    <row r="93" spans="1:7" ht="18">
       <c r="A93" s="34">
         <v>44728</v>
       </c>
@@ -13936,7 +13883,7 @@
         <v>67800000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.649999999999999">
+    <row r="94" spans="1:7" ht="18">
       <c r="A94" s="34">
         <v>44729</v>
       </c>
@@ -13959,7 +13906,7 @@
         <v>115200000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.649999999999999">
+    <row r="95" spans="1:7" ht="18">
       <c r="A95" s="34">
         <v>44732</v>
       </c>
@@ -13982,7 +13929,7 @@
         <v>72200000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.649999999999999">
+    <row r="96" spans="1:7" ht="18">
       <c r="A96" s="34">
         <v>44733</v>
       </c>
@@ -14005,7 +13952,7 @@
         <v>65400000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.649999999999999">
+    <row r="97" spans="1:7" ht="18">
       <c r="A97" s="34">
         <v>44734</v>
       </c>
@@ -14028,7 +13975,7 @@
         <v>66400000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.649999999999999">
+    <row r="98" spans="1:7" ht="18">
       <c r="A98" s="34">
         <v>44735</v>
       </c>
@@ -14051,7 +13998,7 @@
         <v>65700000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.649999999999999">
+    <row r="99" spans="1:7" ht="18">
       <c r="A99" s="34">
         <v>44736</v>
       </c>
@@ -14074,7 +14021,7 @@
         <v>72600000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.649999999999999">
+    <row r="100" spans="1:7" ht="18">
       <c r="A100" s="34">
         <v>44739</v>
       </c>
@@ -14097,7 +14044,7 @@
         <v>65800000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.649999999999999">
+    <row r="101" spans="1:7" ht="18">
       <c r="A101" s="34">
         <v>44740</v>
       </c>
@@ -14120,7 +14067,7 @@
         <v>73400000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.649999999999999">
+    <row r="102" spans="1:7" ht="18">
       <c r="A102" s="34">
         <v>44741</v>
       </c>
@@ -14143,7 +14090,7 @@
         <v>101100000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.649999999999999">
+    <row r="103" spans="1:7" ht="18">
       <c r="A103" s="34">
         <v>44742</v>
       </c>
@@ -14166,7 +14113,7 @@
         <v>86100000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.649999999999999">
+    <row r="104" spans="1:7" ht="18">
       <c r="A104" s="34">
         <v>44743</v>
       </c>
@@ -14189,7 +14136,7 @@
         <v>81700000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.649999999999999">
+    <row r="105" spans="1:7" ht="18">
       <c r="A105" s="34">
         <v>44746</v>
       </c>
@@ -14212,7 +14159,7 @@
         <v>68700000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.649999999999999">
+    <row r="106" spans="1:7" ht="18">
       <c r="A106" s="34">
         <v>44747</v>
       </c>
@@ -14235,7 +14182,7 @@
         <v>62800000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.649999999999999">
+    <row r="107" spans="1:7" ht="18">
       <c r="A107" s="34">
         <v>44748</v>
       </c>
@@ -14258,7 +14205,7 @@
         <v>89700000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.649999999999999">
+    <row r="108" spans="1:7" ht="18">
       <c r="A108" s="34">
         <v>44749</v>
       </c>
@@ -14281,7 +14228,7 @@
         <v>80700000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.649999999999999">
+    <row r="109" spans="1:7" ht="18">
       <c r="A109" s="34">
         <v>44750</v>
       </c>
@@ -14304,7 +14251,7 @@
         <v>89300000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.649999999999999">
+    <row r="110" spans="1:7" ht="18">
       <c r="A110" s="34">
         <v>44753</v>
       </c>
@@ -14327,7 +14274,7 @@
         <v>68500000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.649999999999999">
+    <row r="111" spans="1:7" ht="18">
       <c r="A111" s="34">
         <v>44754</v>
       </c>
@@ -14350,7 +14297,7 @@
         <v>64400000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.649999999999999">
+    <row r="112" spans="1:7" ht="18">
       <c r="A112" s="34">
         <v>44755</v>
       </c>
@@ -14373,7 +14320,7 @@
         <v>54100000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.649999999999999">
+    <row r="113" spans="1:7" ht="18">
       <c r="A113" s="34">
         <v>44756</v>
       </c>
@@ -14396,7 +14343,7 @@
         <v>60600000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.649999999999999">
+    <row r="114" spans="1:7" ht="18">
       <c r="A114" s="34">
         <v>44757</v>
       </c>
@@ -14419,7 +14366,7 @@
         <v>65500000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.649999999999999">
+    <row r="115" spans="1:7" ht="18">
       <c r="A115" s="34">
         <v>44761</v>
       </c>
@@ -14442,7 +14389,7 @@
         <v>59400000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.649999999999999">
+    <row r="116" spans="1:7" ht="18">
       <c r="A116" s="34">
         <v>44762</v>
       </c>
@@ -14465,7 +14412,7 @@
         <v>66700000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.649999999999999">
+    <row r="117" spans="1:7" ht="18">
       <c r="A117" s="34">
         <v>44763</v>
       </c>
@@ -14488,7 +14435,7 @@
         <v>56700000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.649999999999999">
+    <row r="118" spans="1:7" ht="18">
       <c r="A118" s="34">
         <v>44764</v>
       </c>
@@ -14511,7 +14458,7 @@
         <v>60100000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.649999999999999">
+    <row r="119" spans="1:7" ht="18">
       <c r="A119" s="34">
         <v>44767</v>
       </c>
@@ -14534,7 +14481,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.649999999999999">
+    <row r="120" spans="1:7" ht="18">
       <c r="A120" s="34">
         <v>44768</v>
       </c>
@@ -14557,7 +14504,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.649999999999999">
+    <row r="121" spans="1:7" ht="18">
       <c r="A121" s="34">
         <v>44769</v>
       </c>
@@ -14580,7 +14527,7 @@
         <v>51100000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.649999999999999">
+    <row r="122" spans="1:7" ht="18">
       <c r="A122" s="34">
         <v>44770</v>
       </c>
@@ -14603,7 +14550,7 @@
         <v>83500000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.649999999999999">
+    <row r="123" spans="1:7" ht="18">
       <c r="A123" s="34">
         <v>44771</v>
       </c>
@@ -14627,7 +14574,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -14641,18 +14588,18 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="21"/>
-    <col min="4" max="4" width="7.265625" style="21" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="21"/>
+    <col min="4" max="4" width="7.21875" style="21" customWidth="1"/>
     <col min="5" max="5" width="14" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.53125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.06640625" style="21"/>
+    <col min="12" max="12" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14666,7 +14613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.9">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="21">
         <v>24000</v>
       </c>
@@ -15069,7 +15016,7 @@
         <v>136144.24224935254</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.9" thickBot="1">
+    <row r="12" spans="1:12" ht="14.4" thickBot="1">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -15157,23 +15104,235 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1542A6E-20AF-459C-8B58-F955BD166049}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <f>(A2-$A$13)/$A$15</f>
+        <v>-1.9462473604038075</v>
+      </c>
+      <c r="C2" s="12">
+        <f>50+B2*10</f>
+        <v>30.537526395961926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12">
+        <f t="shared" ref="B3:B11" si="0">(A3-$A$13)/$A$15</f>
+        <v>-0.77849894416152299</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C11" si="1">50+B3*10</f>
+        <v>42.215010558384769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.77849894416152299</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="1"/>
+        <v>42.215010558384769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.77849894416152299</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="1"/>
+        <v>57.784989441615231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.77849894416152299</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="1"/>
+        <v>57.784989441615231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9462473604038075</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="1"/>
+        <v>69.462473604038081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
+        <f>_xlfn.STDEV.P(A2:A11)</f>
+        <v>2.5690465157330258</v>
+      </c>
+      <c r="B15" s="12">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>9.9999999999999858</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73358FB6-915E-4FB8-9103-6361BA649ECB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="12"/>
+    <col min="1" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15783,7 +15942,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15797,15 +15956,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="21"/>
-    <col min="4" max="4" width="7.265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.9296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.06640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="21"/>
+    <col min="1" max="3" width="9.109375" style="21"/>
+    <col min="4" max="4" width="7.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15819,7 +15978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="27.6">
       <c r="A2" s="21">
         <v>24000</v>
       </c>
@@ -16144,7 +16303,7 @@
         <v>0.94262295081967218</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.9" thickBot="1">
+    <row r="12" spans="1:10" ht="14.4" thickBot="1">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -16199,7 +16358,7 @@
       <c r="J14" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -16213,9 +16372,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="21"/>
+    <col min="1" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16306,7 +16465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.9" thickBot="1">
+    <row r="12" spans="1:2" ht="14.4" thickBot="1">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -16315,7 +16474,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -16330,9 +16489,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="21"/>
+    <col min="1" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16383,7 +16542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.9" thickBot="1">
+    <row r="7" spans="1:2" ht="14.4" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>67</v>
       </c>
@@ -16392,7 +16551,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -16407,9 +16566,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="21"/>
+    <col min="1" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16564,7 +16723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13.9" thickBot="1">
+    <row r="20" spans="1:2" ht="14.4" thickBot="1">
       <c r="A20" s="22" t="s">
         <v>67</v>
       </c>
@@ -16573,7 +16732,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -16588,16 +16747,16 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16809,7 +16968,7 @@
         <v>55481037</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36.75">
+    <row r="16" spans="1:5" ht="37.200000000000003">
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -16953,7 +17112,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -16972,11 +17131,11 @@
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16984,7 +17143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3" ht="26.4">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -17237,7 +17396,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -17253,195 +17412,195 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="58"/>
+    <col min="1" max="1" width="17.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:4" ht="36">
+      <c r="A1" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="62">
         <v>19</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="62">
         <v>0.9</v>
       </c>
-      <c r="D2" s="59">
-        <f>B2*C2</f>
+      <c r="D2" s="56">
+        <f t="shared" ref="D2:D11" si="0">B2*C2</f>
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="60">
         <v>22.5</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="60">
         <v>64.2</v>
       </c>
-      <c r="D3" s="58">
-        <f>B3*C3</f>
+      <c r="D3" s="55">
+        <f t="shared" si="0"/>
         <v>1444.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="60">
         <v>27.5</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="60">
         <v>21.8</v>
       </c>
-      <c r="D4" s="58">
-        <f>B4*C4</f>
+      <c r="D4" s="55">
+        <f t="shared" si="0"/>
         <v>599.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="60">
         <v>32.5</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="60">
         <v>8.1</v>
       </c>
-      <c r="D5" s="58">
-        <f>B5*C5</f>
+      <c r="D5" s="55">
+        <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="60">
         <v>37.5</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="60">
         <v>3.2</v>
       </c>
-      <c r="D6" s="58">
-        <f>B6*C6</f>
+      <c r="D6" s="55">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="60">
         <v>42.5</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="60">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="58">
-        <f>B7*C7</f>
+      <c r="D7" s="55">
+        <f t="shared" si="0"/>
         <v>46.750000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="60">
         <v>47.5</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="60">
         <v>0.5</v>
       </c>
-      <c r="D8" s="58">
-        <f>B8*C8</f>
+      <c r="D8" s="55">
+        <f t="shared" si="0"/>
         <v>23.75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="60">
         <v>52.5</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="60">
         <v>0.1</v>
       </c>
-      <c r="D9" s="58">
-        <f>B9*C9</f>
+      <c r="D9" s="55">
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="60">
         <v>57.5</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="60">
         <v>0</v>
       </c>
-      <c r="D10" s="58">
-        <f>B10*C10</f>
+      <c r="D10" s="55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="58">
         <v>62.5</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="58">
         <v>0.1</v>
       </c>
-      <c r="D11" s="58">
-        <f>B11*C11</f>
+      <c r="D11" s="55">
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="56">
         <f>SUM(D2:D11)/100</f>
         <v>25.263500000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17450,27 +17609,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658B2E37-4681-47A7-9777-CFF96F681446}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="39.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-    </row>
-    <row r="2" spans="1:5" ht="37.5">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" ht="38.4">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -17884,7 +18043,7 @@
         <v>36.036036036036002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="43" t="s">
         <v>42</v>
       </c>
@@ -17910,7 +18069,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
